--- a/2019-01-12 15-08-15_plot_stats/block_index_with_transaction.xlsx
+++ b/2019-01-12 15-08-15_plot_stats/block_index_with_transaction.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,13 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\GitHub\Blockchain-Simulator\2019-01-12 15-08-15_plot_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3145835E-9D37-47DF-B032-76F26FCB09E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF353E0-9CF2-49D6-AD8E-427D550F393F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11595"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="block_index_with_transaction" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">block_index_with_transaction!$A$2:$A$15</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">block_index_with_transaction!$D$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">block_index_with_transaction!$P$2:$P$15</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">block_index_with_transaction!$D$2:$D$15</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">block_index_with_transaction!$G$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">block_index_with_transaction!$G$2:$G$15</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">block_index_with_transaction!$J$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">block_index_with_transaction!$J$2:$J$15</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">block_index_with_transaction!$M$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">block_index_with_transaction!$M$2:$M$15</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">block_index_with_transaction!$P$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -115,7 +128,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1525,8 +1538,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1543,17 +1557,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>block_index_with_transaction!$A$2:$A$15</c:f>
@@ -1655,7 +1667,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2AB2-456D-9356-3B21150BF860}"/>
@@ -1677,17 +1688,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>block_index_with_transaction!$A$2:$A$15</c:f>
@@ -1789,7 +1798,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2AB2-456D-9356-3B21150BF860}"/>
@@ -1811,17 +1819,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>block_index_with_transaction!$A$2:$A$15</c:f>
@@ -1923,7 +1929,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2AB2-456D-9356-3B21150BF860}"/>
@@ -1945,17 +1950,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>block_index_with_transaction!$A$2:$A$15</c:f>
@@ -2057,7 +2060,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2AB2-456D-9356-3B21150BF860}"/>
@@ -2079,17 +2081,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>block_index_with_transaction!$A$2:$A$15</c:f>
@@ -2191,7 +2191,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2AB2-456D-9356-3B21150BF860}"/>
@@ -2206,10 +2205,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="1164025072"/>
         <c:axId val="974618864"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="1164025072"/>
         <c:scaling>
@@ -5241,8 +5240,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -5259,17 +5259,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>block_index_with_transaction!$A$2:$A$15</c:f>
@@ -5371,7 +5369,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-74D0-4821-A9EB-535836D03925}"/>
@@ -5393,17 +5390,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>block_index_with_transaction!$A$2:$A$15</c:f>
@@ -5505,7 +5500,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-74D0-4821-A9EB-535836D03925}"/>
@@ -5527,17 +5521,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>block_index_with_transaction!$A$2:$A$15</c:f>
@@ -5639,7 +5631,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-74D0-4821-A9EB-535836D03925}"/>
@@ -5661,17 +5652,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>block_index_with_transaction!$A$2:$A$15</c:f>
@@ -5773,7 +5762,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-74D0-4821-A9EB-535836D03925}"/>
@@ -5795,17 +5783,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>block_index_with_transaction!$A$2:$A$15</c:f>
@@ -5907,7 +5893,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-74D0-4821-A9EB-535836D03925}"/>
@@ -5922,10 +5907,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="1271043040"/>
         <c:axId val="1158460224"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="1271043040"/>
         <c:scaling>
@@ -6193,8 +6178,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -6211,17 +6197,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>block_index_with_transaction!$A$2:$A$15</c:f>
@@ -6323,7 +6307,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F9DC-47A2-BA25-03F7486AF17B}"/>
@@ -6345,17 +6328,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>block_index_with_transaction!$A$2:$A$15</c:f>
@@ -6457,7 +6438,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F9DC-47A2-BA25-03F7486AF17B}"/>
@@ -6479,17 +6459,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>block_index_with_transaction!$A$2:$A$15</c:f>
@@ -6591,7 +6569,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F9DC-47A2-BA25-03F7486AF17B}"/>
@@ -6613,17 +6590,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>block_index_with_transaction!$A$2:$A$15</c:f>
@@ -6725,7 +6700,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-F9DC-47A2-BA25-03F7486AF17B}"/>
@@ -6747,17 +6721,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>block_index_with_transaction!$A$2:$A$15</c:f>
@@ -6859,7 +6831,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-F9DC-47A2-BA25-03F7486AF17B}"/>
@@ -6874,10 +6845,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="1271649648"/>
         <c:axId val="981988416"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="1271649648"/>
         <c:scaling>
@@ -11563,7 +11534,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
+      <xdr:colOff>112568</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -11593,15 +11564,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>582757</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:colOff>354157</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>19916</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11629,13 +11600,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:colOff>436418</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>207818</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -11665,15 +11636,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>8660</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>82262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>465860</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>110837</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11703,13 +11674,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>93518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>122959</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11737,13 +11708,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>657224</xdr:colOff>
+      <xdr:colOff>449408</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>628649</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>329047</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -11778,8 +11749,8 @@
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>25977</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
@@ -12105,11 +12076,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
